--- a/data/balance_sheet/3digits/total/253_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/253_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>253-Manufacture of steam generators, except central heating hot water boilers</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>253-Manufacture of steam generators, except central heating hot water boilers</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>143967.27297</v>
@@ -1496,7 +946,7 @@
         <v>436273.42525</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>473290.49749</v>
+        <v>512695.85598</v>
       </c>
       <c r="J5" s="33" t="n">
         <v>609828.49581</v>
@@ -1505,38 +955,43 @@
         <v>775201.45123</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>911742.11123</v>
+        <v>914442.2406700001</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>1119158.22773</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>1122237.28961</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>1692542.42</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>34806.363</v>
       </c>
       <c r="D6" s="23" t="n">
-        <v>41826.14481000001</v>
+        <v>41826.14481</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>60241.99346</v>
+        <v>60241.99345999999</v>
       </c>
       <c r="F6" s="33" t="n">
         <v>76734.36238999999</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>95803.57222</v>
+        <v>95803.57222000002</v>
       </c>
       <c r="H6" s="33" t="n">
         <v>114849.80939</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>96325.15383000001</v>
+        <v>130560.55932</v>
       </c>
       <c r="J6" s="33" t="n">
         <v>161364.1009</v>
@@ -1545,17 +1000,22 @@
         <v>208515.76828</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>229652.17645</v>
+        <v>230447.74486</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>326315.75385</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>326875.82909</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>695415.3</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>3660.18859</v>
@@ -1573,10 +1033,10 @@
         <v>4927.81125</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>7193.9572</v>
+        <v>7193.957199999999</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>6809.751010000001</v>
+        <v>6843.159029999999</v>
       </c>
       <c r="J7" s="21" t="n">
         <v>9525.58491</v>
@@ -1585,17 +1045,22 @@
         <v>12172.02846</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>17983.42388</v>
+        <v>18538.7012</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>19014.13189</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>19259.66095</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>28427.11</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>10500.12004</v>
@@ -1616,26 +1081,31 @@
         <v>37707.07995</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>43986.84562000001</v>
+        <v>43986.84562</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>44838.11093</v>
       </c>
       <c r="K8" s="22" t="n">
-        <v>48937.02066999999</v>
+        <v>48937.02067000001</v>
       </c>
       <c r="L8" s="22" t="n">
         <v>47755.54573999999</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>21724.29408</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>22020.96261</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>35177.982</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>23999.427</v>
@@ -1644,7 +1114,7 @@
         <v>27797.48453</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>40823.4321</v>
+        <v>40823.43209999998</v>
       </c>
       <c r="F9" s="21" t="n">
         <v>48467.50859</v>
@@ -1653,10 +1123,10 @@
         <v>71792.94306000001</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>75675.41726</v>
+        <v>75675.41725999999</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>51567.0322</v>
+        <v>85758.67994</v>
       </c>
       <c r="J9" s="21" t="n">
         <v>115956.19724</v>
@@ -1665,17 +1135,22 @@
         <v>160979.24452</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>199859.88838</v>
+        <v>200100.17947</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>302545.4875</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>302563.36515</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>650839.394</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>3395.67782</v>
@@ -1687,7 +1162,7 @@
         <v>6579.35502</v>
       </c>
       <c r="F10" s="21" t="n">
-        <v>6669.21186</v>
+        <v>6669.211859999999</v>
       </c>
       <c r="G10" s="22" t="n">
         <v>5984.05155</v>
@@ -1696,7 +1171,7 @@
         <v>5926.709269999999</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>6414.539769999999</v>
+        <v>6414.53977</v>
       </c>
       <c r="J10" s="21" t="n">
         <v>9139.9228</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>17995.53871</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>19837.588</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>42.30519</v>
@@ -1727,7 +1207,7 @@
         <v>50.10814</v>
       </c>
       <c r="F11" s="21" t="n">
-        <v>96.68234000000001</v>
+        <v>96.68234</v>
       </c>
       <c r="G11" s="22" t="n">
         <v>1075.08834</v>
@@ -1736,7 +1216,7 @@
         <v>200.06425</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>376.06477</v>
+        <v>386.4145</v>
       </c>
       <c r="J11" s="21" t="n">
         <v>184.13062</v>
@@ -1750,12 +1230,17 @@
       <c r="M11" s="22" t="n">
         <v>1027.37909</v>
       </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+      <c r="N11" s="22" t="n">
+        <v>808.402</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>1452.96138</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>15504.87121</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>14106.03</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>103.90181</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>838.0857099999999</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>12262.12337</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>2252.765</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>196.09567</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>6532.93</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>418.78</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>3138.84603</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>5319.638</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>42814.81437</v>
@@ -2004,10 +1519,10 @@
         <v>41642.29464</v>
       </c>
       <c r="E18" s="23" t="n">
-        <v>69909.30020999999</v>
+        <v>69909.30021</v>
       </c>
       <c r="F18" s="33" t="n">
-        <v>75408.13216999998</v>
+        <v>75408.13217</v>
       </c>
       <c r="G18" s="23" t="n">
         <v>103671.05339</v>
@@ -2016,7 +1531,7 @@
         <v>108985.98613</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>127563.82715</v>
+        <v>131517.47075</v>
       </c>
       <c r="J18" s="33" t="n">
         <v>146995.3642</v>
@@ -2025,29 +1540,34 @@
         <v>201888.12065</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>202297.63093</v>
+        <v>202382.15389</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>289691.08629</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>291205.41642</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>382089.994</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>31967.52856</v>
       </c>
       <c r="D19" s="22" t="n">
-        <v>35385.88301</v>
+        <v>35385.88301000001</v>
       </c>
       <c r="E19" s="22" t="n">
         <v>59814.15434</v>
       </c>
       <c r="F19" s="21" t="n">
-        <v>60912.97906999999</v>
+        <v>60912.97907</v>
       </c>
       <c r="G19" s="22" t="n">
         <v>87415.75447</v>
@@ -2056,7 +1576,7 @@
         <v>86241.70264</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>99767.02117000001</v>
+        <v>102078.39183</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>119842.11643</v>
@@ -2065,17 +1585,22 @@
         <v>171802.84304</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>166136.51316</v>
+        <v>166181.03612</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>243974.82721</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>245068.85055</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>335602.859</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>8681.92145</v>
@@ -2084,10 +1609,10 @@
         <v>3812.60914</v>
       </c>
       <c r="E20" s="22" t="n">
-        <v>6654.77802</v>
+        <v>6654.778020000001</v>
       </c>
       <c r="F20" s="21" t="n">
-        <v>7981.72296</v>
+        <v>7981.722960000001</v>
       </c>
       <c r="G20" s="22" t="n">
         <v>11978.48684</v>
@@ -2096,7 +1621,7 @@
         <v>16298.78176</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>20603.38169</v>
+        <v>22176.08728</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>22354.01928</v>
@@ -2105,17 +1630,22 @@
         <v>23633.66885</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>29481.99056</v>
+        <v>29521.99056</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>38975.7845</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>39395.8045</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>34299.108</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>1.72469</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>506.42621</v>
@@ -2204,7 +1744,7 @@
         <v>556.56348</v>
       </c>
       <c r="E23" s="22" t="n">
-        <v>572.70714</v>
+        <v>572.7071399999999</v>
       </c>
       <c r="F23" s="21" t="n">
         <v>625.2896500000001</v>
@@ -2216,10 +1756,10 @@
         <v>2901.66746</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>837.7834300000001</v>
+        <v>850.19051</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>995.2329700000001</v>
+        <v>995.23297</v>
       </c>
       <c r="K23" s="22" t="n">
         <v>2439.3505</v>
@@ -2228,14 +1768,19 @@
         <v>2409.34687</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>2761.13025</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>2761.41704</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>7002.961</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>1570.84148</v>
@@ -2256,7 +1801,7 @@
         <v>2396.00582</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>3986.98489</v>
+        <v>4044.14516</v>
       </c>
       <c r="J24" s="21" t="n">
         <v>1539.55055</v>
@@ -2270,12 +1815,17 @@
       <c r="M24" s="22" t="n">
         <v>1829.85421</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>2956.046</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>1013.79632</v>
@@ -2296,29 +1846,34 @@
         <v>3619.9227</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>5401.608720000001</v>
+        <v>5579.46024</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>5694.204050000001</v>
       </c>
       <c r="K25" s="22" t="n">
-        <v>6588.3548</v>
+        <v>6588.354800000001</v>
       </c>
       <c r="L25" s="22" t="n">
-        <v>7321.063700000001</v>
+        <v>7321.063700000002</v>
       </c>
       <c r="M25" s="22" t="n">
         <v>5872.717009999999</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>6596.26</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
-        <v>925.69965</v>
+        <v>925.6996499999999</v>
       </c>
       <c r="D26" s="22" t="n">
         <v>1214.02946</v>
@@ -2336,7 +1891,7 @@
         <v>2451.53791</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>3032.95275</v>
+        <v>3210.80427</v>
       </c>
       <c r="J26" s="21" t="n">
         <v>3429.75908</v>
@@ -2345,17 +1900,22 @@
         <v>4083.92537</v>
       </c>
       <c r="L26" s="22" t="n">
-        <v>4540.9482</v>
+        <v>4540.948199999999</v>
       </c>
       <c r="M26" s="22" t="n">
         <v>3721.5022</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>4367.24</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>4627.788610000001</v>
@@ -2367,7 +1927,7 @@
         <v>14230.32248</v>
       </c>
       <c r="F27" s="33" t="n">
-        <v>8429.41892</v>
+        <v>8429.418920000002</v>
       </c>
       <c r="G27" s="23" t="n">
         <v>26681.14725</v>
@@ -2376,7 +1936,7 @@
         <v>39053.07502</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>53901.94163999999</v>
+        <v>53902.44992</v>
       </c>
       <c r="J27" s="33" t="n">
         <v>27505.01048</v>
@@ -2385,17 +1945,22 @@
         <v>23364.43462</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>27462.39588</v>
+        <v>27672.10508</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>54897.25573</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>55094.76724</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>100847.158</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>2577.58381</v>
@@ -2413,7 +1978,7 @@
         <v>11808.31202</v>
       </c>
       <c r="H28" s="21" t="n">
-        <v>6779.752640000001</v>
+        <v>6779.75264</v>
       </c>
       <c r="I28" s="22" t="n">
         <v>6386.53017</v>
@@ -2422,20 +1987,25 @@
         <v>3025.73381</v>
       </c>
       <c r="K28" s="22" t="n">
-        <v>7860.84204</v>
+        <v>7860.842040000001</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>6816.40381</v>
+        <v>7010.09332</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>17732.63071</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>17921.90695</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>35782.478</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>16.67222</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>328.8572</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>33.638</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>17.3</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>17.74186</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>163.81419</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>632.431</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>2015.79072</v>
@@ -2576,7 +2161,7 @@
         <v>31346.86868</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>46847.26041</v>
+        <v>46847.76869</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>24362.77356</v>
@@ -2585,17 +2170,22 @@
         <v>15360.03959</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>20440.64368</v>
+        <v>20456.66337</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>36654.65363</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>36662.8889</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>64389.961</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0.05133</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0.05133</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0.05133</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0.05133</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>50064.413</v>
@@ -2736,7 +2341,7 @@
         <v>135673.53575</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>159773.80691</v>
+        <v>160962.34245</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>231675.10576</v>
@@ -2745,17 +2350,22 @@
         <v>236591.02644</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>340397.7752100001</v>
+        <v>341155.33693</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>314399.55198</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>315148.97656</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>379615.912</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>18968.05983</v>
@@ -2776,26 +2386,31 @@
         <v>51008.00682</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>53761.86445</v>
+        <v>53922.39327</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>74598.95965999999</v>
       </c>
       <c r="K37" s="22" t="n">
-        <v>76146.75118000001</v>
+        <v>76146.75117999999</v>
       </c>
       <c r="L37" s="22" t="n">
         <v>159521.55209</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>131317.83065</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>131505.92837</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>149439.582</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>11192.73665</v>
@@ -2807,10 +2422,10 @@
         <v>42065.35757</v>
       </c>
       <c r="F38" s="21" t="n">
-        <v>52798.16311</v>
+        <v>52798.16311000001</v>
       </c>
       <c r="G38" s="22" t="n">
-        <v>49112.19041999999</v>
+        <v>49112.19042</v>
       </c>
       <c r="H38" s="21" t="n">
         <v>40503.55143</v>
@@ -2819,23 +2434,28 @@
         <v>34138.8795</v>
       </c>
       <c r="J38" s="21" t="n">
-        <v>83565.48351000001</v>
+        <v>83565.48350999999</v>
       </c>
       <c r="K38" s="22" t="n">
         <v>59345.14328</v>
       </c>
       <c r="L38" s="22" t="n">
-        <v>25461.516</v>
+        <v>25648.21737</v>
       </c>
       <c r="M38" s="22" t="n">
         <v>48457.32892</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>66338.35000000001</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>8631.830179999999</v>
@@ -2856,7 +2476,7 @@
         <v>14098.04844</v>
       </c>
       <c r="I39" s="22" t="n">
-        <v>37285.18193</v>
+        <v>37545.53930999999</v>
       </c>
       <c r="J39" s="21" t="n">
         <v>37419.13218</v>
@@ -2868,14 +2488,19 @@
         <v>79825.88367</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>65541.30849</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>65711.83217000001</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>71109.158</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>2083.00834</v>
@@ -2893,10 +2518,10 @@
         <v>5998.66031</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>8820.853780000001</v>
+        <v>8820.853779999999</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>5394.77824</v>
+        <v>5806.49433</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>11603.26874</v>
@@ -2905,20 +2530,25 @@
         <v>14329.73178</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>9515.170689999999</v>
+        <v>9555.170689999999</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>7449.727599999999</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>7489.727599999999</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>20282.317</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
-        <v>379.8391799999999</v>
+        <v>379.8391800000001</v>
       </c>
       <c r="D41" s="22" t="n">
         <v>420.95821</v>
@@ -2942,7 +2572,7 @@
         <v>1315.53627</v>
       </c>
       <c r="K41" s="22" t="n">
-        <v>852.11497</v>
+        <v>852.1149700000001</v>
       </c>
       <c r="L41" s="22" t="n">
         <v>536.01752</v>
@@ -2950,12 +2580,17 @@
       <c r="M41" s="22" t="n">
         <v>1192.22577</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>1143.311</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>8808.938819999999</v>
@@ -3016,26 +2656,31 @@
         <v>20457.00472</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>28166.19978</v>
+        <v>28522.13303</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>23172.7254</v>
       </c>
       <c r="K43" s="22" t="n">
-        <v>44484.71441</v>
+        <v>44484.71440999999</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>65537.63523999999</v>
+        <v>66068.49559000001</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>60441.13054999999</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>60791.93373</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>71303.194</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>2699.94137</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>58841.99849000001</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>32797.398</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>2699.94137</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>58841.99849000001</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>32797.398</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1305.03452</v>
@@ -3225,17 +2890,22 @@
         <v>3260.43298</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>1577.22049</v>
+        <v>2271.22049</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>3675.47876</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>3675.78437</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>2961.234</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>1071.16154</v>
@@ -3244,7 +2914,7 @@
         <v>1106.88711</v>
       </c>
       <c r="E49" s="22" t="n">
-        <v>5132.95681</v>
+        <v>5132.956810000001</v>
       </c>
       <c r="F49" s="21" t="n">
         <v>225.72594</v>
@@ -3265,17 +2935,22 @@
         <v>3090.70961</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>1379.80135</v>
+        <v>2073.80135</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>2807.07065</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>2807.37626</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>1884.709</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>233.87298</v>
@@ -3290,7 +2965,7 @@
         <v>54.3909</v>
       </c>
       <c r="G50" s="22" t="n">
-        <v>528.5019400000001</v>
+        <v>528.50194</v>
       </c>
       <c r="H50" s="21" t="n">
         <v>29.27755</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>868.40811</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>1076.525</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>6195.95672</v>
@@ -3336,7 +3016,7 @@
         <v>21305.88418</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>29677.4368</v>
+        <v>29704.70238</v>
       </c>
       <c r="J51" s="45" t="n">
         <v>30743.85248</v>
@@ -3345,17 +3025,22 @@
         <v>42984.75457</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>56624.52748</v>
+        <v>56783.29463</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>55832.23142</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>55889.64623000001</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>84709.394</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>2623.018</v>
@@ -3370,7 +3055,7 @@
         <v>11008.52713</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>6726.452699999999</v>
+        <v>6726.4527</v>
       </c>
       <c r="H52" s="21" t="n">
         <v>13877.39832</v>
@@ -3385,17 +3070,22 @@
         <v>26725.23946</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>40089.27547</v>
+        <v>40244.44227000001</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>44765.20091</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>44813.183</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>54155.004</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>3.7705</v>
@@ -3430,12 +3120,17 @@
       <c r="M53" s="22" t="n">
         <v>0.03337</v>
       </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+      <c r="N53" s="22" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>1432.33321</v>
@@ -3456,7 +3151,7 @@
         <v>3615.32023</v>
       </c>
       <c r="I54" s="22" t="n">
-        <v>8060.14483</v>
+        <v>8087.41041</v>
       </c>
       <c r="J54" s="21" t="n">
         <v>5426.79547</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>4224.98332</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>18529.26</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>765.24981</v>
@@ -3496,7 +3196,7 @@
         <v>411.94872</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>988.8773400000001</v>
+        <v>988.87734</v>
       </c>
       <c r="J55" s="21" t="n">
         <v>1275.07199</v>
@@ -3505,17 +3205,22 @@
         <v>4891.57558</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>1387.20958</v>
+        <v>1387.21096</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>1066.99896</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>1070.23168</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>2691.754</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>1341.08791</v>
@@ -3550,12 +3255,17 @@
       <c r="M56" s="22" t="n">
         <v>4442.47196</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>7859.958</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>28.13118</v>
@@ -3585,17 +3295,22 @@
         <v>527.8070300000001</v>
       </c>
       <c r="L57" s="22" t="n">
-        <v>504.9771299999999</v>
+        <v>508.5761</v>
       </c>
       <c r="M57" s="22" t="n">
-        <v>547.6961600000001</v>
-      </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+        <v>553.8961599999999</v>
+      </c>
+      <c r="N57" s="22" t="n">
+        <v>650.883</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0.00412</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>5.38172</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>6.264</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>2.36199</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>779.46502</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>815.504</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>83208.54762</v>
@@ -3735,7 +3465,7 @@
         <v>217970.43937</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>254447.27273</v>
+        <v>261028.80586</v>
       </c>
       <c r="J61" s="37" t="n">
         <v>310852.76569</v>
@@ -3744,17 +3474,22 @@
         <v>264938.55359</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>281395.02291</v>
+        <v>295452.80752</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>321367.46315</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>325210.931</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>388421.148</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>73.94914</v>
@@ -3769,7 +3504,7 @@
         <v>90.42166999999999</v>
       </c>
       <c r="G62" s="36" t="n">
-        <v>352.21249</v>
+        <v>352.2124900000001</v>
       </c>
       <c r="H62" s="37" t="n">
         <v>1024.09109</v>
@@ -3789,12 +3524,17 @@
       <c r="M62" s="36" t="n">
         <v>10189.64487</v>
       </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+      <c r="N62" s="36" t="n">
+        <v>1428.942</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>73.94914</v>
@@ -3989,12 +3749,17 @@
       <c r="M67" s="22" t="n">
         <v>10189.64487</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>1428.942</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>1648.7561</v>
@@ -4049,7 +3819,7 @@
         <v>29.30129</v>
       </c>
       <c r="G69" s="36" t="n">
-        <v>4889.540569999999</v>
+        <v>4889.54057</v>
       </c>
       <c r="H69" s="37" t="n">
         <v>5160.67743</v>
@@ -4067,14 +3837,19 @@
         <v>6196.10376</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>4749.06134</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>4749.061340000001</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>6114.115</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>65.76483999999999</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>625.6765300000001</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>1299.853</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>1582.99126</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>4123.38481</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>4814.262</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>2931.04304</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>15271.51568</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>15030.855</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>16.01484</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>16.01484</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>16.015</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,18 +4289,23 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>3890.0282</v>
       </c>
       <c r="D80" s="22" t="n">
-        <v>8329.741199999999</v>
+        <v>8329.7412</v>
       </c>
       <c r="E80" s="22" t="n">
         <v>3973.8432</v>
@@ -4492,10 +4317,10 @@
         <v>6657.83499</v>
       </c>
       <c r="H80" s="21" t="n">
-        <v>7668.73938</v>
+        <v>7668.739380000001</v>
       </c>
       <c r="I80" s="22" t="n">
-        <v>7295.05056</v>
+        <v>7295.050560000001</v>
       </c>
       <c r="J80" s="21" t="n">
         <v>2661.95184</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>6738.00084</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>6738.001</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>975</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>0</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>8527.5</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>8502.174000000001</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>225.335</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,21 +4649,26 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
-        <v>75264.09782</v>
+        <v>75264.09782000001</v>
       </c>
       <c r="D88" s="23" t="n">
-        <v>93494.72504999999</v>
+        <v>93494.72505000001</v>
       </c>
       <c r="E88" s="23" t="n">
-        <v>99376.78623</v>
+        <v>99376.78622999998</v>
       </c>
       <c r="F88" s="33" t="n">
         <v>106280.18938</v>
@@ -4815,7 +4680,7 @@
         <v>172481.27716</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>193130.54182</v>
+        <v>199672.77454</v>
       </c>
       <c r="J88" s="33" t="n">
         <v>230962.48485</v>
@@ -4824,17 +4689,22 @@
         <v>192652.40496</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>194191.1495</v>
+        <v>197583.63032</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>223439.8102</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>227275.02317</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>291969.575</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>4225.34985</v>
@@ -4849,19 +4719,19 @@
         <v>2884.0818</v>
       </c>
       <c r="G89" s="22" t="n">
-        <v>6587.610050000001</v>
+        <v>6587.61005</v>
       </c>
       <c r="H89" s="21" t="n">
         <v>11511.61261</v>
       </c>
       <c r="I89" s="22" t="n">
-        <v>12079.54442</v>
+        <v>12121.19517</v>
       </c>
       <c r="J89" s="21" t="n">
         <v>13519.59127</v>
       </c>
       <c r="K89" s="22" t="n">
-        <v>8094.869959999999</v>
+        <v>8094.86996</v>
       </c>
       <c r="L89" s="22" t="n">
         <v>7466.26996</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>7578.3075</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>17007.814</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>1736.05391</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>2315.09494</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>1926.713</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>31492.61972</v>
@@ -4932,10 +4812,10 @@
         <v>84877.99915</v>
       </c>
       <c r="H91" s="21" t="n">
-        <v>99278.52677</v>
+        <v>99278.52677000001</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>126060.19964</v>
+        <v>132464.90705</v>
       </c>
       <c r="J91" s="21" t="n">
         <v>169130.22976</v>
@@ -4947,26 +4827,31 @@
         <v>130602.97039</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>155600.27381</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>155719.65288</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>166152.724</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>29190.18553</v>
       </c>
       <c r="D92" s="22" t="n">
-        <v>33641.40398999999</v>
+        <v>33641.40399</v>
       </c>
       <c r="E92" s="22" t="n">
         <v>35679.10228</v>
       </c>
       <c r="F92" s="21" t="n">
-        <v>40113.3528</v>
+        <v>40113.35280000001</v>
       </c>
       <c r="G92" s="22" t="n">
         <v>49275.10106</v>
@@ -4975,26 +4860,31 @@
         <v>55802.48829</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>70307.76420999999</v>
+        <v>73530.55275</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>84684.77494999999</v>
+        <v>84684.77495000001</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>84470.01193000001</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>89297.33504000001</v>
+        <v>89297.33503999999</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>108173.05496</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>108223.04055</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>123071.262</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>10296.33605</v>
@@ -5015,7 +4905,7 @@
         <v>19653.59112</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>19739.47639</v>
+        <v>21520.82954</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>22577.9655</v>
@@ -5024,29 +4914,34 @@
         <v>24746.51857</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>26925.85567</v>
+        <v>26970.25824</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>30146.15728</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>30511.09965</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>47711.673</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>5869.51466</v>
       </c>
       <c r="D94" s="22" t="n">
-        <v>6232.317230000001</v>
+        <v>6232.31723</v>
       </c>
       <c r="E94" s="22" t="n">
-        <v>6925.587509999999</v>
+        <v>6925.58751</v>
       </c>
       <c r="F94" s="21" t="n">
-        <v>7912.887379999999</v>
+        <v>7912.88738</v>
       </c>
       <c r="G94" s="22" t="n">
         <v>10183.14493</v>
@@ -5055,7 +4950,7 @@
         <v>11536.91434</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>12646.63218</v>
+        <v>13302.71163</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>15275.45172</v>
@@ -5064,17 +4959,22 @@
         <v>16771.55443</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>17596.56346</v>
+        <v>17604.74949</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>20800.60683</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>20844.15787</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>25850.691</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>91.19555</v>
@@ -5109,18 +5009,23 @@
       <c r="M95" s="22" t="n">
         <v>291.32359</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>324.489</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>38134.65399</v>
       </c>
       <c r="D96" s="22" t="n">
-        <v>40729.88617000001</v>
+        <v>40729.88617</v>
       </c>
       <c r="E96" s="22" t="n">
         <v>41235.56709</v>
@@ -5135,32 +5040,37 @@
         <v>66724.91867</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>72169.69588</v>
+        <v>79243.39988000001</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>94846.98140999999</v>
+        <v>94846.98140999998</v>
       </c>
       <c r="K96" s="22" t="n">
-        <v>93206.49475</v>
+        <v>93206.49475000001</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>104328.6655</v>
+        <v>104377.01719</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>123988.26312</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>124119.15213</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>139999.436</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>30484.84114</v>
       </c>
       <c r="D97" s="22" t="n">
-        <v>39322.95367999999</v>
+        <v>39322.95368</v>
       </c>
       <c r="E97" s="22" t="n">
         <v>46517.87447</v>
@@ -5175,7 +5085,7 @@
         <v>39159.97683</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>21432.40803</v>
+        <v>22941.76545</v>
       </c>
       <c r="J97" s="21" t="n">
         <v>16710.24018</v>
@@ -5184,17 +5094,22 @@
         <v>19693.53472</v>
       </c>
       <c r="L97" s="22" t="n">
-        <v>23078.42824</v>
+        <v>26435.67215</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>20384.97235</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>23742.21626</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>46652.524</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>12.6554</v>
@@ -5224,17 +5139,22 @@
         <v>2452.4835</v>
       </c>
       <c r="L98" s="22" t="n">
-        <v>1450.61185</v>
+        <v>1481.61185</v>
       </c>
       <c r="M98" s="22" t="n">
-        <v>2138.28206</v>
-      </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+        <v>2169.28206</v>
+      </c>
+      <c r="N98" s="22" t="n">
+        <v>3271.121</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>2489.74961</v>
@@ -5264,17 +5184,22 @@
         <v>28508.61664</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>31608.66398</v>
+        <v>31610.66001</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>35048.03515</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>35055.75496</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>51013.716</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>1691.39127</v>
@@ -5309,12 +5234,17 @@
       <c r="M100" s="22" t="n">
         <v>26380.13076</v>
       </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+      <c r="N100" s="22" t="n">
+        <v>25562.189</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>31.41892</v>
@@ -5372,7 +5307,7 @@
         <v>35.90237</v>
       </c>
       <c r="H102" s="21" t="n">
-        <v>40.17058000000001</v>
+        <v>40.17058</v>
       </c>
       <c r="I102" s="22" t="n">
         <v>47.235</v>
@@ -5384,17 +5319,22 @@
         <v>43.49159</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>41.91924</v>
+        <v>43.91527</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>39.04193</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>46.2567</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>77.20699999999999</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5406,7 +5346,7 @@
         <v>502.87313</v>
       </c>
       <c r="F103" s="21" t="n">
-        <v>342.72399</v>
+        <v>342.7239900000001</v>
       </c>
       <c r="G103" s="22" t="n">
         <v>772.53197</v>
@@ -5421,7 +5361,7 @@
         <v>4605.20757</v>
       </c>
       <c r="K103" s="22" t="n">
-        <v>6311.140539999999</v>
+        <v>6311.14054</v>
       </c>
       <c r="L103" s="22" t="n">
         <v>8370.08728</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>13605.72442</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>32009.034</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>2279.39557</v>
@@ -5455,29 +5400,34 @@
         <v>4272.82891</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>5674.03254</v>
+        <v>5674.032539999999</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>6077.002010000001</v>
+        <v>6077.00201</v>
       </c>
       <c r="K104" s="22" t="n">
-        <v>5535.17119</v>
+        <v>5535.171189999999</v>
       </c>
       <c r="L104" s="22" t="n">
         <v>7237.27579</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>6196.623159999999</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>6197.78841</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>9289.019</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
-        <v>710.55539</v>
+        <v>710.5553899999999</v>
       </c>
       <c r="D105" s="22" t="n">
         <v>627.1437099999999</v>
@@ -5486,7 +5436,7 @@
         <v>932.1442099999999</v>
       </c>
       <c r="F105" s="21" t="n">
-        <v>771.8787899999999</v>
+        <v>771.87879</v>
       </c>
       <c r="G105" s="22" t="n">
         <v>1062.71851</v>
@@ -5501,7 +5451,7 @@
         <v>967.54179</v>
       </c>
       <c r="K105" s="22" t="n">
-        <v>858.78545</v>
+        <v>858.7854500000001</v>
       </c>
       <c r="L105" s="22" t="n">
         <v>1151.94868</v>
@@ -5509,12 +5459,17 @@
       <c r="M105" s="22" t="n">
         <v>1461.43459</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>1525.389</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>2223.01154</v>
@@ -5526,10 +5481,10 @@
         <v>3291.53486</v>
       </c>
       <c r="F106" s="21" t="n">
-        <v>4819.94921</v>
+        <v>4819.949210000001</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>6881.50275</v>
+        <v>6881.502750000001</v>
       </c>
       <c r="H106" s="21" t="n">
         <v>8438.63681</v>
@@ -5547,14 +5502,19 @@
         <v>12189.76093</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>12634.91971</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>12635.57992</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>17464.122</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,18 +5819,23 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>797.0060100000001</v>
       </c>
       <c r="D114" s="23" t="n">
-        <v>853.8608899999999</v>
+        <v>853.86089</v>
       </c>
       <c r="E114" s="23" t="n">
         <v>1211.70692</v>
@@ -5855,7 +5850,7 @@
         <v>4028.22125</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>8783.550220000001</v>
+        <v>8822.850629999999</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>11702.89802</v>
@@ -5867,26 +5862,31 @@
         <v>12226.20313</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>23983.53623</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>23984.0713</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>16719.408</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>797.0060100000001</v>
       </c>
       <c r="D115" s="22" t="n">
-        <v>853.8608899999999</v>
+        <v>853.86089</v>
       </c>
       <c r="E115" s="22" t="n">
         <v>1210.869</v>
       </c>
       <c r="F115" s="21" t="n">
-        <v>2357.11548</v>
+        <v>2357.115479999999</v>
       </c>
       <c r="G115" s="22" t="n">
         <v>3855.83057</v>
@@ -5895,7 +5895,7 @@
         <v>4028.22125</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>8783.550220000001</v>
+        <v>8822.850630000001</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>11702.89802</v>
@@ -5907,14 +5907,19 @@
         <v>12226.20313</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>23983.53623</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>23984.0713</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>16719.408</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>3.9459</v>
@@ -5984,17 +5994,22 @@
         <v>13608.86771</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>8731.258540000001</v>
+        <v>19394.5663</v>
       </c>
       <c r="M117" s="23" t="n">
         <v>8685.85968</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>6144.537</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0.31791</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>66.09399999999999</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>3.62799</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>676.124</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>138.648</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6224,17 +6264,22 @@
         <v>10663.30776</v>
       </c>
       <c r="L123" s="22" t="n">
-        <v>2300</v>
+        <v>12963.30776</v>
       </c>
       <c r="M123" s="22" t="n">
         <v>2300</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>2302.058</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,18 +6404,23 @@
       <c r="M126" s="22" t="n">
         <v>5709.73568</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>3637.737</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>227175.82059</v>
       </c>
       <c r="D127" s="23" t="n">
-        <v>288847.44881</v>
+        <v>288847.4488100001</v>
       </c>
       <c r="E127" s="23" t="n">
         <v>402363.43735</v>
@@ -6372,26 +6432,29 @@
         <v>582711.4925699999</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>654243.86462</v>
+        <v>654243.8646199999</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>727737.7702199999</v>
+        <v>773724.6618400001</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>920681.2615</v>
+        <v>920681.2614999999</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>1040140.00482</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>1193137.13414</v>
+        <v>1209895.04819</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>1440525.69088</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>1447448.22061</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>2080963.568</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>253-Manufacture of steam generators, except central heating hot water boilers</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>103011.84051</v>
@@ -6507,7 +6584,7 @@
         <v>313161.57008</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>375149.00656</v>
+        <v>381204.2981</v>
       </c>
       <c r="J132" s="33" t="n">
         <v>397560.24073</v>
@@ -6516,17 +6593,22 @@
         <v>492973.50388</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>514897.64578</v>
+        <v>516771.45685</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>566396.01179</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>569179.09149</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>933904.84</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>11429.88891</v>
@@ -6541,32 +6623,37 @@
         <v>34631.01740999999</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>43271.92321000001</v>
+        <v>43271.92320999999</v>
       </c>
       <c r="H133" s="33" t="n">
         <v>72224.91512999999</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>67366.67234</v>
+        <v>70571.86592999999</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>87739.75989999999</v>
+        <v>87739.7599</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>96589.34172</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>78141.99741</v>
+        <v>78141.99741000001</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>65658.99299</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>65681.18304</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>127923.419</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>10723.88474</v>
@@ -6587,26 +6674,31 @@
         <v>59486.18228</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>59277.65622</v>
+        <v>62482.84981</v>
       </c>
       <c r="J134" s="21" t="n">
         <v>70759.04901999999</v>
       </c>
       <c r="K134" s="22" t="n">
-        <v>80263.50485</v>
+        <v>80263.50485000001</v>
       </c>
       <c r="L134" s="22" t="n">
         <v>74166.83613</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>64010.08671</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>64032.27676000001</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>124933.103</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>556.1234899999999</v>
@@ -6624,7 +6716,7 @@
         <v>699.40526</v>
       </c>
       <c r="H135" s="21" t="n">
-        <v>6017.7441</v>
+        <v>6017.744100000001</v>
       </c>
       <c r="I135" s="22" t="n">
         <v>5220.61379</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>80.15946000000001</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>3.936</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>203.81314</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>1051.19256</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>2101.337</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>1e-05</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>26.22699</v>
@@ -6898,10 +7025,10 @@
         <v>21.23849</v>
       </c>
       <c r="F142" s="21" t="n">
-        <v>8.66352</v>
+        <v>8.663519999999998</v>
       </c>
       <c r="G142" s="22" t="n">
-        <v>50.88136</v>
+        <v>50.88135999999999</v>
       </c>
       <c r="H142" s="21" t="n">
         <v>493.53196</v>
@@ -6921,12 +7048,17 @@
       <c r="M142" s="22" t="n">
         <v>597.71372</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>848.925</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>38598.18392</v>
@@ -6938,16 +7070,16 @@
         <v>70164.64219</v>
       </c>
       <c r="F143" s="45" t="n">
-        <v>74232.28838999999</v>
+        <v>74232.28839</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>88688.91398</v>
+        <v>88688.91397999998</v>
       </c>
       <c r="H143" s="45" t="n">
         <v>93867.61001999999</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>108172.05787</v>
+        <v>110455.96148</v>
       </c>
       <c r="J143" s="45" t="n">
         <v>130286.01119</v>
@@ -6956,17 +7088,22 @@
         <v>144985.54116</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>177972.60929</v>
+        <v>178908.63946</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>258959.89651</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>260091.08205</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>416826.15</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>18910.51092</v>
@@ -6987,26 +7124,31 @@
         <v>65571.11109999999</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>67128.07277</v>
+        <v>68345.76479</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>86789.59971000001</v>
+        <v>86789.59970999999</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>99694.10889</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>114431.98773</v>
+        <v>115368.0179</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>164274.36237</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>165034.94973</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>274014.974</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>15738.01809</v>
@@ -7027,7 +7169,7 @@
         <v>25320.12905</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>37556.04685</v>
+        <v>37800.31587</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>40010.29070000001</v>
@@ -7039,14 +7181,19 @@
         <v>57657.77539</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>81831.10223</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>82041.20040999999</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>128347.798</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>20.06953</v>
@@ -7107,7 +7259,7 @@
         <v>1216.66806</v>
       </c>
       <c r="I147" s="25" t="n">
-        <v>13.68</v>
+        <v>17.69068</v>
       </c>
       <c r="J147" s="24" t="n">
         <v>96.53288000000001</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>243.75277</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>246.863</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>3929.58538</v>
@@ -7138,7 +7295,7 @@
         <v>2532.14675</v>
       </c>
       <c r="F148" s="24" t="n">
-        <v>9137.284059999998</v>
+        <v>9137.28406</v>
       </c>
       <c r="G148" s="25" t="n">
         <v>5524.474740000001</v>
@@ -7147,7 +7304,7 @@
         <v>1759.70181</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>3474.25825</v>
+        <v>4292.190140000001</v>
       </c>
       <c r="J148" s="24" t="n">
         <v>3389.5879</v>
@@ -7156,23 +7313,28 @@
         <v>3225.85265</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>5639.327899999999</v>
+        <v>5639.3279</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>12610.67914</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>12771.17914</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>14216.515</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>17919.5148</v>
       </c>
       <c r="D149" s="23" t="n">
-        <v>9517.083049999999</v>
+        <v>9517.083050000001</v>
       </c>
       <c r="E149" s="23" t="n">
         <v>8562.84749</v>
@@ -7184,7 +7346,7 @@
         <v>11237.87067</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>32210.05510000001</v>
+        <v>32210.0551</v>
       </c>
       <c r="I149" s="23" t="n">
         <v>42486.64826</v>
@@ -7196,17 +7358,22 @@
         <v>30747.5402</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>32718.97783</v>
+        <v>32846.03303</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>33414.20957</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>34322.62625</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>52299.345</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>13620.1509</v>
@@ -7218,10 +7385,10 @@
         <v>5269.422890000001</v>
       </c>
       <c r="F150" s="21" t="n">
-        <v>6577.89241</v>
+        <v>6577.892409999999</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>5747.171329999999</v>
+        <v>5747.17133</v>
       </c>
       <c r="H150" s="21" t="n">
         <v>23551.35057</v>
@@ -7236,17 +7403,22 @@
         <v>11253.16928</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>17876.31638</v>
+        <v>17878.24296</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>19011.07452</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>19887.66715</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>33089.971</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>1003.1453</v>
@@ -7356,17 +7538,22 @@
         <v>6172.46941</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>6991.83703</v>
+        <v>7037.858590000001</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>7091.55085</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>7106.18489</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>8738.858</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>3296.2186</v>
@@ -7378,13 +7565,13 @@
         <v>1231.37233</v>
       </c>
       <c r="F154" s="21" t="n">
-        <v>5706.538030000002</v>
+        <v>5706.53803</v>
       </c>
       <c r="G154" s="22" t="n">
         <v>2360.25109</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>5546.805300000001</v>
+        <v>5546.8053</v>
       </c>
       <c r="I154" s="22" t="n">
         <v>3603.09534</v>
@@ -7396,17 +7583,22 @@
         <v>13321.90151</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>7850.82442</v>
+        <v>7929.931479999999</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>7311.5842</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>7328.77421</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>10470.516</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>27485.58846</v>
@@ -7455,7 +7652,7 @@
         <v>41830.73176</v>
       </c>
       <c r="E156" s="23" t="n">
-        <v>75301.68713999998</v>
+        <v>75301.68713999999</v>
       </c>
       <c r="F156" s="33" t="n">
         <v>73761.77881999999</v>
@@ -7476,17 +7673,22 @@
         <v>155209.17905</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>182212.21925</v>
+        <v>182695.54026</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>154037.74354</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>154326.38768</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>247100.288</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>26997.26446</v>
@@ -7516,17 +7718,22 @@
         <v>155045.35179</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>181705.75129</v>
+        <v>182156.54669</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>153724.10725</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>154012.75139</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>246786.652</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>488.324</v>
@@ -7556,17 +7763,22 @@
         <v>163.82726</v>
       </c>
       <c r="L158" s="22" t="n">
-        <v>506.46796</v>
+        <v>538.99357</v>
       </c>
       <c r="M158" s="22" t="n">
         <v>313.63629</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>313.636</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>2734.07085</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>23186.77993</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>32350.717</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>2734.07085</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>23186.77993</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>32346.741</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>3.976</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>3712.77995</v>
@@ -7707,7 +7934,7 @@
         <v>9442.456480000001</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>11256.10809</v>
+        <v>11822.30243</v>
       </c>
       <c r="J162" s="33" t="n">
         <v>15290.50337</v>
@@ -7716,17 +7943,22 @@
         <v>19417.14419</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>20906.72795</v>
+        <v>21234.13264</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>22062.53933</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>22495.18262</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>35878.862</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>1961.59347</v>
@@ -7747,26 +7979,31 @@
         <v>5027.50553</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>5683.76259</v>
+        <v>6164.26727</v>
       </c>
       <c r="J163" s="21" t="n">
         <v>5095.940070000001</v>
       </c>
       <c r="K163" s="22" t="n">
-        <v>7246.671770000001</v>
+        <v>7246.67177</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>9050.20141</v>
+        <v>9220.01117</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>8520.358179999999</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>8655.543009999999</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>15732.072</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>1395.84069</v>
@@ -7787,26 +8024,31 @@
         <v>2269.4317</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>2624.99299</v>
+        <v>2706.04176</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>5133.391620000001</v>
+        <v>5133.39162</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>5275.98402</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>3649.96464</v>
+        <v>3807.55957</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>4356.73068</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>4500.20378</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>5158.173</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>273.06824</v>
@@ -7836,17 +8078,22 @@
         <v>6282.78703</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>8027.618779999999</v>
+        <v>8027.618780000001</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>8932.136619999999</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>9085.96996</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>14656.258</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>82.27754999999999</v>
@@ -7867,7 +8114,7 @@
         <v>508.40032</v>
       </c>
       <c r="I166" s="22" t="n">
-        <v>621.71309</v>
+        <v>626.35398</v>
       </c>
       <c r="J166" s="21" t="n">
         <v>660.71413</v>
@@ -7879,14 +8126,19 @@
         <v>178.94312</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>253.31385</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>253.46587</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>332.359</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>837.46862</v>
@@ -7921,12 +8173,17 @@
       <c r="M167" s="23" t="n">
         <v>3390.10681</v>
       </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+      <c r="N167" s="23" t="n">
+        <v>10315.241</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>2395.72336</v>
@@ -7959,14 +8216,19 @@
         <v>6401.438230000001</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>15449.33248</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>15451.38877</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>33376.818</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>1558.41735</v>
@@ -7981,16 +8243,16 @@
         <v>3817.81689</v>
       </c>
       <c r="G169" s="22" t="n">
-        <v>5656.10984</v>
+        <v>5656.109840000001</v>
       </c>
       <c r="H169" s="21" t="n">
-        <v>6136.52644</v>
+        <v>6136.526440000001</v>
       </c>
       <c r="I169" s="22" t="n">
         <v>6501.146699999999</v>
       </c>
       <c r="J169" s="21" t="n">
-        <v>3199.50563</v>
+        <v>3199.505630000001</v>
       </c>
       <c r="K169" s="22" t="n">
         <v>4457.88946</v>
@@ -7999,14 +8261,19 @@
         <v>4273.048269999999</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>12059.22567</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>12061.28196</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>23063.501</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0.16261</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>47.56932</v>
@@ -8147,7 +8429,7 @@
         <v>1189.2578</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>3481.326449999999</v>
+        <v>3481.32645</v>
       </c>
       <c r="J173" s="33" t="n">
         <v>1242.92945</v>
@@ -8161,12 +8443,17 @@
       <c r="M173" s="23" t="n">
         <v>2873.81589</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>6414.503</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>0.89737</v>
@@ -8184,7 +8471,7 @@
         <v>0.11646</v>
       </c>
       <c r="H174" s="21" t="n">
-        <v>871.8091899999999</v>
+        <v>871.8091900000001</v>
       </c>
       <c r="I174" s="22" t="n">
         <v>3134.96549</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>616.8214099999999</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>3565.282</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>46.67195</v>
@@ -8230,7 +8522,7 @@
         <v>346.36096</v>
       </c>
       <c r="J175" s="21" t="n">
-        <v>356.62807</v>
+        <v>356.6280700000001</v>
       </c>
       <c r="K175" s="22" t="n">
         <v>1184.08532</v>
@@ -8241,12 +8533,17 @@
       <c r="M175" s="22" t="n">
         <v>2256.99448</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>2849.221</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>246.77568</v>
@@ -8281,12 +8578,17 @@
       <c r="M176" s="23" t="n">
         <v>2811.92722</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>4796.315</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>2e-05</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>0.486</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>244.96498</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>2811.9272</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>4795.829</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>1.8107</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>9650.98026</v>
@@ -8501,7 +8828,7 @@
         <v>62525.01683</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>83940.01640000001</v>
+        <v>83940.01639999999</v>
       </c>
       <c r="H182" s="33" t="n">
         <v>87440.02619999999</v>
@@ -8516,17 +8843,22 @@
         <v>138415.09664</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>160718.60235</v>
+        <v>163744.80109</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>270684.41528</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>273766.11402</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>253634.297</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>9016.932070000001</v>
@@ -8538,10 +8870,10 @@
         <v>48465.02922</v>
       </c>
       <c r="F183" s="33" t="n">
-        <v>60878.23709999999</v>
+        <v>60878.2371</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>82275.92469999999</v>
+        <v>82275.9247</v>
       </c>
       <c r="H183" s="33" t="n">
         <v>73284.82293000001</v>
@@ -8553,7 +8885,7 @@
         <v>107143.70182</v>
       </c>
       <c r="K183" s="23" t="n">
-        <v>95439.84451</v>
+        <v>95439.84451000001</v>
       </c>
       <c r="L183" s="23" t="n">
         <v>125263.454</v>
@@ -8561,12 +8893,17 @@
       <c r="M183" s="23" t="n">
         <v>222960.77248</v>
       </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+      <c r="N183" s="23" t="n">
+        <v>212702.398</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>8477.850759999999</v>
@@ -8581,19 +8918,19 @@
         <v>31681.61236</v>
       </c>
       <c r="G184" s="22" t="n">
-        <v>55330.18079999999</v>
+        <v>55330.1808</v>
       </c>
       <c r="H184" s="21" t="n">
         <v>44782.48486</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>76081.56255000002</v>
+        <v>76081.56255</v>
       </c>
       <c r="J184" s="21" t="n">
         <v>60609.68047</v>
       </c>
       <c r="K184" s="22" t="n">
-        <v>88419.23684</v>
+        <v>88419.23683999998</v>
       </c>
       <c r="L184" s="22" t="n">
         <v>118945.8571</v>
@@ -8601,12 +8938,17 @@
       <c r="M184" s="22" t="n">
         <v>216635.92743</v>
       </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+      <c r="N184" s="22" t="n">
+        <v>206810.872</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>582.11509</v>
@@ -8618,7 +8960,7 @@
         <v>1120.96758</v>
       </c>
       <c r="F185" s="21" t="n">
-        <v>7554.20003</v>
+        <v>7554.200029999999</v>
       </c>
       <c r="G185" s="22" t="n">
         <v>2970.12822</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>6774.73683</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>6305.246</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>43.03378</v>
@@ -8658,7 +9005,7 @@
         <v>99.86108999999999</v>
       </c>
       <c r="F186" s="21" t="n">
-        <v>654.2692000000001</v>
+        <v>654.2692</v>
       </c>
       <c r="G186" s="22" t="n">
         <v>127.31448</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>458.00202</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>413.72</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>8.110239999999999</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>0</v>
@@ -8876,17 +9248,22 @@
         <v>1654.45646</v>
       </c>
       <c r="L191" s="23" t="n">
-        <v>1984.06773</v>
+        <v>2013.56773</v>
       </c>
       <c r="M191" s="23" t="n">
         <v>1404.73949</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>6091.484</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0</v>
@@ -8916,17 +9293,22 @@
         <v>902.98227</v>
       </c>
       <c r="L192" s="22" t="n">
-        <v>346.43</v>
+        <v>375.93</v>
       </c>
       <c r="M192" s="22" t="n">
         <v>346.43</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>346.43</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>1058.30949</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>5745.054</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>634.0481900000001</v>
@@ -9116,17 +9518,22 @@
         <v>11769.53759</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>10650.70648</v>
+        <v>13647.40522</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>9811.415520000002</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>12893.11426</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>15212.053</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>634.0481900000001</v>
@@ -9150,23 +9557,28 @@
         <v>1551.09938</v>
       </c>
       <c r="J198" s="21" t="n">
-        <v>7908.08901</v>
+        <v>7908.089010000001</v>
       </c>
       <c r="K198" s="22" t="n">
-        <v>7910.18221</v>
+        <v>7910.182210000001</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>9050.34852</v>
+        <v>9534.738660000001</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>9338.67268</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>9908.062820000001</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>12291.576</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9196,17 +9608,22 @@
         <v>2512.3086</v>
       </c>
       <c r="L199" s="22" t="n">
-        <v>0</v>
+        <v>2512.3086</v>
       </c>
       <c r="M199" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+        <v>2512.3086</v>
+      </c>
+      <c r="N199" s="22" t="n">
+        <v>2512.309</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>265.65363</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>137.827</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9356,17 +9788,22 @@
         <v>1284.66518</v>
       </c>
       <c r="L203" s="22" t="n">
-        <v>986.3579599999999</v>
+        <v>986.35796</v>
       </c>
       <c r="M203" s="22" t="n">
         <v>207.08921</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>270.341</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>30436.36916</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>4626.741</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>30047.80544</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>4238.177</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>388.56372</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>388.564</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>5171.470389999999</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>9943.484</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>5171.470389999999</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>9943.484</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>0</v>
@@ -9639,14 +10106,19 @@
         <v>345.69104</v>
       </c>
       <c r="M210" s="23" t="n">
-        <v>888.0203399999999</v>
-      </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+        <v>888.02034</v>
+      </c>
+      <c r="N210" s="23" t="n">
+        <v>5058.078</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>0</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>453.6168</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>292.804</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>434.40354</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>4765.274</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>11.6279</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>11.6279</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>114512.99982</v>
@@ -9907,38 +10409,43 @@
         <v>253642.26834</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>246277.84374</v>
+        <v>286209.44382</v>
       </c>
       <c r="J217" s="33" t="n">
         <v>377784.48468</v>
       </c>
       <c r="K217" s="23" t="n">
-        <v>408751.4042999999</v>
+        <v>408751.4043</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>517520.88601</v>
+        <v>529378.79025</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>603445.2638099999</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>604503.0151000001</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>893424.431</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
-        <v>61848.34901000001</v>
+        <v>61848.34901</v>
       </c>
       <c r="D218" s="23" t="n">
         <v>68628.41812999999</v>
       </c>
       <c r="E218" s="23" t="n">
-        <v>74058.60849000001</v>
+        <v>74058.60849</v>
       </c>
       <c r="F218" s="33" t="n">
-        <v>84144.19086999999</v>
+        <v>84144.19087000001</v>
       </c>
       <c r="G218" s="23" t="n">
         <v>92932.94577000001</v>
@@ -9947,7 +10454,7 @@
         <v>102114.44882</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>93220.84218000001</v>
+        <v>106220.84218</v>
       </c>
       <c r="J218" s="33" t="n">
         <v>114600.10609</v>
@@ -9956,23 +10463,28 @@
         <v>130087.96311</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>143824.29314</v>
+        <v>144514.79314</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>155120.6778</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>157445.6778</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>180009.336</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>60521.64</v>
       </c>
       <c r="D219" s="22" t="n">
-        <v>69531.90852000001</v>
+        <v>69531.90852</v>
       </c>
       <c r="E219" s="22" t="n">
         <v>74926.52</v>
@@ -9987,7 +10499,7 @@
         <v>98666.00001</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>90917.55000999999</v>
+        <v>103917.55001</v>
       </c>
       <c r="J219" s="21" t="n">
         <v>111612.55</v>
@@ -9996,17 +10508,22 @@
         <v>126981.55001</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>140422.55</v>
+        <v>141322.55</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>151233.5384</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>154868.5384</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>182594</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>3857.40363</v>
@@ -10036,17 +10553,22 @@
         <v>1412.34298</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>1117.01294</v>
+        <v>1326.51294</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>629.91621</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>1939.91621</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>7101.719</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>5184.11264</v>
@@ -10064,7 +10586,7 @@
         <v>4380.050929999999</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>4452.301729999999</v>
+        <v>4452.30173</v>
       </c>
       <c r="I221" s="22" t="n">
         <v>4521.52408</v>
@@ -10079,14 +10601,19 @@
         <v>4518.75608</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>4517.055609999999</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>4517.05561</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>4517.055</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>379.07298</v>
@@ -10135,7 +10667,7 @@
         <v>3530.27277</v>
       </c>
       <c r="E223" s="23" t="n">
-        <v>9638.337030000001</v>
+        <v>9638.337029999999</v>
       </c>
       <c r="F223" s="33" t="n">
         <v>9223.884029999999</v>
@@ -10147,13 +10679,13 @@
         <v>15940.52194</v>
       </c>
       <c r="I223" s="23" t="n">
-        <v>16072.62793</v>
+        <v>17074.26318</v>
       </c>
       <c r="J223" s="33" t="n">
         <v>67353.81395</v>
       </c>
       <c r="K223" s="23" t="n">
-        <v>60774.7664</v>
+        <v>60774.76640000001</v>
       </c>
       <c r="L223" s="23" t="n">
         <v>154111.73931</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>145162.20122</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>136628.806</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>26.06108</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>10.83396</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>10.834</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>110410.44747</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>111551.986</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>353.0119</v>
@@ -10427,7 +10994,7 @@
         <v>14203.2318</v>
       </c>
       <c r="I230" s="22" t="n">
-        <v>14336.24768</v>
+        <v>15337.88293</v>
       </c>
       <c r="J230" s="21" t="n">
         <v>28035.33704</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>34740.91979</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>25065.986</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>16319.08878</v>
@@ -10464,10 +11036,10 @@
         <v>32832.65768</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>38139.80933999999</v>
+        <v>38139.80934000001</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>49148.02951</v>
+        <v>50627.46406000001</v>
       </c>
       <c r="J231" s="33" t="n">
         <v>55469.72398</v>
@@ -10476,17 +11048,22 @@
         <v>52347.21656</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>51134.99290999999</v>
+        <v>51157.87398</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>51654.95532</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>51681.22398999999</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>155758.451</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>4369.325809999999</v>
@@ -10495,10 +11072,10 @@
         <v>4545.657429999999</v>
       </c>
       <c r="E232" s="22" t="n">
-        <v>4970.71084</v>
+        <v>4970.710840000001</v>
       </c>
       <c r="F232" s="21" t="n">
-        <v>5293.168619999999</v>
+        <v>5293.16862</v>
       </c>
       <c r="G232" s="22" t="n">
         <v>6598.85054</v>
@@ -10507,7 +11084,7 @@
         <v>8603.643900000001</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>9493.064550000001</v>
+        <v>10793.85773</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>11235.57997</v>
@@ -10516,17 +11093,22 @@
         <v>10970.46428</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>11757.22139</v>
+        <v>11780.10246</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>13563.74153</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>13590.0102</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>14720.721</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>25.2645</v>
@@ -10561,18 +11143,23 @@
       <c r="M233" s="22" t="n">
         <v>204.9807</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>212.101</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
-        <v>7152.98863</v>
+        <v>7152.988629999999</v>
       </c>
       <c r="D234" s="22" t="n">
-        <v>9132.288120000001</v>
+        <v>9132.288119999999</v>
       </c>
       <c r="E234" s="22" t="n">
         <v>9171.107959999999</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>21399.56331</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>21022.151</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0.09046</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>4.82846</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>4771.41938</v>
@@ -10667,7 +11264,7 @@
         <v>13143.71864</v>
       </c>
       <c r="I236" s="22" t="n">
-        <v>20939.40838</v>
+        <v>21118.04974999999</v>
       </c>
       <c r="J236" s="21" t="n">
         <v>22151.78196</v>
@@ -10681,12 +11278,17 @@
       <c r="M236" s="22" t="n">
         <v>16481.84132</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>119798.388</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>25924.67893</v>
@@ -10707,7 +11309,7 @@
         <v>89367.67378999999</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>82546.15198000001</v>
+        <v>102707.67339</v>
       </c>
       <c r="J237" s="33" t="n">
         <v>150376.95498</v>
@@ -10716,23 +11318,28 @@
         <v>145440.29722</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>147256.08672</v>
+        <v>158653.6385</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>195430.11311</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>196797.21804</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>292500.789</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-5428.26419</v>
       </c>
       <c r="D238" s="23" t="n">
-        <v>-4918.22563</v>
+        <v>-4918.225630000001</v>
       </c>
       <c r="E238" s="23" t="n">
         <v>-7407.10742</v>
@@ -10747,26 +11354,31 @@
         <v>-17086.55447</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-40761.60969</v>
+        <v>-41543.59514</v>
       </c>
       <c r="J238" s="33" t="n">
         <v>-48134.93712</v>
       </c>
       <c r="K238" s="23" t="n">
-        <v>-21174.00584</v>
+        <v>-21174.00584000001</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-27651.44065</v>
+        <v>-27911.04292</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-33440.25444</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-35978.46315</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-28550.059</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>15470.07431</v>
@@ -10787,26 +11399,31 @@
         <v>25166.36892</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>46051.80183</v>
+        <v>51122.79615</v>
       </c>
       <c r="J239" s="33" t="n">
         <v>38118.82279999999</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>41275.16684999999</v>
+        <v>41275.16685</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>48845.21458</v>
+        <v>48851.78824</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>89517.5708</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>89395.15719999999</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>157077.108</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>17444.75489</v>
@@ -10824,10 +11441,10 @@
         <v>42818.94291</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>46538.87909999999</v>
+        <v>46538.8791</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>49067.07223000001</v>
+        <v>54138.06655</v>
       </c>
       <c r="J240" s="21" t="n">
         <v>44598.21844999999</v>
@@ -10836,17 +11453,22 @@
         <v>47907.62012</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>61926.27596</v>
+        <v>61961.23507</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>93876.27644</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>93917.17456999999</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>163796.453</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>1974.68058</v>
@@ -10873,57 +11495,65 @@
         <v>6479.39565</v>
       </c>
       <c r="K241" s="22" t="n">
-        <v>6632.45327</v>
+        <v>6632.453270000001</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>13081.06138</v>
+        <v>13109.44683</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>4358.705639999999</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>4522.01737</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>6719.345</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>227175.82059</v>
       </c>
       <c r="D242" s="47" t="n">
-        <v>288847.4488099999</v>
+        <v>288847.44881</v>
       </c>
       <c r="E242" s="47" t="n">
-        <v>402363.43735</v>
+        <v>402363.4373500001</v>
       </c>
       <c r="F242" s="48" t="n">
         <v>459727.85236</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>582711.49257</v>
+        <v>582711.4925699999</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>654243.86462</v>
+        <v>654243.8646200001</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>727737.7702199999</v>
+        <v>773724.66184</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>920681.2614999999</v>
+        <v>920681.2615</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>1040140.00482</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>1193137.13414</v>
+        <v>1209895.04819</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>1440525.69088</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>1447448.22061</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>2080963.568</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>66</v>
@@ -10963,7 +11596,7 @@
         <v>81</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J244" s="53" t="n">
         <v>91</v>
@@ -10972,14 +11605,17 @@
         <v>96</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>87</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>100</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>108</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>